--- a/event/templates/import_reg.xlsx
+++ b/event/templates/import_reg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/distr/attendly/event/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956C5499-18B7-3D49-8CBF-910B354CDAE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B889A00-4844-204F-8889-4E910822BC2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="1300" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import Registrations" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/event/templates/import_reg.xlsx
+++ b/event/templates/import_reg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/distr/attendly/event/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/xn/wd0zyvnx6kqc116xy9_czz3w0000gn/T/ch.sudo.cyberduck/editor-c101031d-68a5-438a-ae7e-41f205e9db63/home/developer/attendly/event/templates/-1413356538/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B889A00-4844-204F-8889-4E910822BC2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946A4148-555F-3944-AD58-49C2E73898D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import Registrations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>last_name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>middle_name</t>
   </si>
   <si>
-    <t>nickname</t>
-  </si>
-  <si>
     <t>event</t>
   </si>
   <si>
@@ -41,9 +38,6 @@
   </si>
   <si>
     <t>VK Туса 2.0</t>
-  </si>
-  <si>
-    <t>basta</t>
   </si>
   <si>
     <t>Иванов</t>
@@ -399,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -412,12 +406,11 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -428,31 +421,25 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
